--- a/biology/Botanique/Echeveria_elegans/Echeveria_elegans.xlsx
+++ b/biology/Botanique/Echeveria_elegans/Echeveria_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echeveria elegans est une espèce de plantes à fleurs de la famille des Crassulaceae. Elle est native des habitats semi-désertiques du Mexique. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echeveria elegans est une plante vivace, succulente et sempervirente. Elle a une taille située entre 5 et 10 cm pour une envergure d'environ 50 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echeveria elegans est une plante vivace, succulente et sempervirente. Elle a une taille située entre 5 et 10 cm pour une envergure d'environ 50 cm.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Echeveria elegans est généralement cultivée en tant que plante ornementale. Elle peut supporter un climat subtropical, semblable à celui de la Californie du Sud, mais ne peut pas supporter des températures situées sous 7 °C.
 </t>
@@ -573,9 +589,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante a remporté le Award of Garden Merit de la Royal Horticultural Society[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante a remporté le Award of Garden Merit de la Royal Horticultural Society.
 			Echeveria elegans en pot.
 </t>
         </is>
